--- a/files/reports/2021-10-14/report.xlsx
+++ b/files/reports/2021-10-14/report.xlsx
@@ -299,14 +299,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E74" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E75" totalsRowCount="1">
   <autoFilter ref="A1:E74"/>
   <tableColumns count="5">
     <tableColumn id="1" name="Resource"/>
-    <tableColumn id="2" name="Total"/>
-    <tableColumn id="3" name="Spent"/>
-    <tableColumn id="4" name="Needed"/>
-    <tableColumn id="5" name="Percentage"/>
+    <tableColumn id="2" name="Total" totalsRowFunction="average"/>
+    <tableColumn id="3" name="Spent" totalsRowFunction="average"/>
+    <tableColumn id="4" name="Needed" totalsRowFunction="average"/>
+    <tableColumn id="5" name="Percentage" totalsRowFunction="average"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight15" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -597,7 +597,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E74"/>
+  <dimension ref="A1:E75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -822,13 +822,13 @@
         <v>132</v>
       </c>
       <c r="C13">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D13">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E13" s="1">
-        <v>0.7727000000000001</v>
+        <v>0.803</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1536,13 +1536,13 @@
         <v>1372</v>
       </c>
       <c r="C55">
-        <v>1200</v>
+        <v>1204</v>
       </c>
       <c r="D55">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="E55" s="1">
-        <v>0.8746</v>
+        <v>0.8776</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1866,6 +1866,24 @@
       </c>
       <c r="E74" s="1">
         <v>0.0399</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="B75">
+        <f>SUBTOTAL(101,[Total])</f>
+        <v>0</v>
+      </c>
+      <c r="C75">
+        <f>SUBTOTAL(101,[Spent])</f>
+        <v>0</v>
+      </c>
+      <c r="D75">
+        <f>SUBTOTAL(101,[Needed])</f>
+        <v>0</v>
+      </c>
+      <c r="E75" s="1">
+        <f>SUBTOTAL(101,[Percentage])</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/files/reports/2021-10-14/report.xlsx
+++ b/files/reports/2021-10-14/report.xlsx
@@ -303,9 +303,9 @@
   <autoFilter ref="A1:E74"/>
   <tableColumns count="5">
     <tableColumn id="1" name="Resource"/>
-    <tableColumn id="2" name="Total" totalsRowFunction="average"/>
-    <tableColumn id="3" name="Spent" totalsRowFunction="average"/>
-    <tableColumn id="4" name="Needed" totalsRowFunction="average"/>
+    <tableColumn id="2" name="Total"/>
+    <tableColumn id="3" name="Spent"/>
+    <tableColumn id="4" name="Needed"/>
     <tableColumn id="5" name="Percentage" totalsRowFunction="average"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight15" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
@@ -1869,18 +1869,6 @@
       </c>
     </row>
     <row r="75" spans="1:5">
-      <c r="B75">
-        <f>SUBTOTAL(101,[Total])</f>
-        <v>0</v>
-      </c>
-      <c r="C75">
-        <f>SUBTOTAL(101,[Spent])</f>
-        <v>0</v>
-      </c>
-      <c r="D75">
-        <f>SUBTOTAL(101,[Needed])</f>
-        <v>0</v>
-      </c>
       <c r="E75" s="1">
         <f>SUBTOTAL(101,[Percentage])</f>
         <v>0</v>
